--- a/story_xlsx_files_postpilotiiedits/34.xlsx
+++ b/story_xlsx_files_postpilotiiedits/34.xlsx
@@ -26,7 +26,7 @@
     <t>story</t>
   </si>
   <si>
-    <t>Charlie saw Alma as they walked into class, and he motioned for her to come sit in the back next to him because they had a deal to discuss.</t>
+    <t>Charlie saw Alma as she walked into lecture, and he motioned for her to come sit in the back next to him because they had a deal to discuss.</t>
   </si>
   <si>
     <t>Charlie and Alma were both history majors with entrepreneurial bents.</t>
@@ -38,7 +38,7 @@
     <t>After talking at a party, Charlie had discovered that Alma was looking for financing for her web development company of which she was the founder and CEO.</t>
   </si>
   <si>
-    <t xml:space="preserve">It was serendipitous because he was an investment analyst for a student finance group on campus, and he had just been talking with other members of the group about making a new investment. </t>
+    <t xml:space="preserve">It was serendipitous because he was a fund manager for a student finance group on campus, and he had just been talking with other members of the group about making a new investment. </t>
   </si>
   <si>
     <t xml:space="preserve">His financial group had come to a decision that morning about Alma’s startup, and he didn't want to wait until after class to discuss the proposal with her. </t>
@@ -80,7 +80,7 @@
     <t>Alma turned to Charlie and offered her rebuttal, “I don’t know about that.</t>
   </si>
   <si>
-    <t xml:space="preserve">It’s not going to be possible to implement our ideas effectively unless the project is fully funded. </t>
+    <t xml:space="preserve">It’s not going to be possible to implement our objectives effectively unless the project is fully funded. </t>
   </si>
   <si>
     <t xml:space="preserve">We would have to find other investors like your competitor on campus, Churchill Capital Group, and that would set us back in our timeline. </t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Everyone, except Charlie and Alma, packed up their things and headed out of the lecture hall. </t>
   </si>
   <si>
-    <t xml:space="preserve">“Alright, so we’ll have the $30,000 wired to you by tomorrow,” Charlie said. </t>
+    <t xml:space="preserve">“Alright, so we’ll have the $56,000 wired to you by tomorrow,” Charlie said. </t>
   </si>
   <si>
     <t xml:space="preserve">This wasn't ideal for Charlie, but Alma had refused to budge, and his investment group had told him they were willing to pay the full amount if necessary. </t>
@@ -1487,7 +1487,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" ht="164.05" customHeight="1">
+    <row r="6" ht="152.05" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>8</v>
       </c>
@@ -1697,7 +1697,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" ht="80.05" customHeight="1">
+    <row r="20" ht="92.05" customHeight="1">
       <c r="A20" t="s" s="8">
         <v>22</v>
       </c>
